--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4435,7 +4435,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59909</t>
+          <t>63458</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>57588</t>
+          <t>61463</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61482</t>
+          <t>64971</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>56764</t>
+          <t>61647</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54104</t>
+          <t>58824</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>63914</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>116673</t>
+          <t>125106</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>113463</t>
+          <t>121371</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>119303</t>
+          <t>127702</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,91%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3274</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5158</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>7331</t>
+          <t>6708</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>10085</t>
+          <t>9257</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>696</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4119</t>
+          <t>4781</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2195</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>6744</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>82880</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>62205</t>
+          <t>79497</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66717</t>
+          <t>85460</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62582</t>
+          <t>84182</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60537</t>
+          <t>81498</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63987</t>
+          <t>86145</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>127255</t>
+          <t>167062</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>124379</t>
+          <t>162898</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>129971</t>
+          <t>170294</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>94,18%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>5389</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>8081</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4690</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>7562</t>
+          <t>9068</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>6413</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>10147</t>
+          <t>12684</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>5468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>630</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2152</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86409</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83025</t>
+          <t>108525</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88885</t>
+          <t>115301</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87698</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>84583</t>
+          <t>107696</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>90634</t>
+          <t>115002</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>84,47%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>174106</t>
+          <t>223849</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>169837</t>
+          <t>217611</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>178151</t>
+          <t>228493</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>90,26%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8935</t>
+          <t>11141</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6677</t>
+          <t>8415</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12141</t>
+          <t>14545</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7859</t>
+          <t>9528</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5790</t>
+          <t>6951</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10426</t>
+          <t>12769</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16794</t>
+          <t>20669</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>16584</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>20841</t>
+          <t>25417</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -1872,102 +1872,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5331</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7833</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5812</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11922</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>2,3%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4579</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2767</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7010</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>6822</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>9564</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>125861</t>
+          <t>134069</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>122521</t>
+          <t>130313</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>129019</t>
+          <t>137091</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>125945</t>
+          <t>137047</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>122728</t>
+          <t>133974</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>129151</t>
+          <t>139807</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>251805</t>
+          <t>271117</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>246778</t>
+          <t>266020</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>256401</t>
+          <t>275161</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>92,27%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9621</t>
+          <t>8339</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>6048</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12649</t>
+          <t>11154</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9275</t>
+          <t>7847</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6789</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12236</t>
+          <t>10342</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>18896</t>
+          <t>16186</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15258</t>
+          <t>13006</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>23066</t>
+          <t>19890</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5768</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3932</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>8219</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5200</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>10968</t>
+          <t>10912</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>8180</t>
+          <t>8128</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>14336</t>
+          <t>14335</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>114144</t>
+          <t>116990</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>110749</t>
+          <t>113739</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>116960</t>
+          <t>119683</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2593,32 +2593,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>135782</t>
+          <t>127336</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>132139</t>
+          <t>124595</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>138618</t>
+          <t>129908</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>91,11%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2628,32 +2628,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>249926</t>
+          <t>244326</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>245179</t>
+          <t>240150</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>253979</t>
+          <t>248293</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>92,02%</t>
         </is>
       </c>
     </row>
@@ -2671,32 +2671,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9236</t>
+          <t>8826</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12705</t>
+          <t>11524</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9288</t>
+          <t>7858</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12377</t>
+          <t>10089</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2741,32 +2741,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>18524</t>
+          <t>16684</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>15088</t>
+          <t>13775</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>22437</t>
+          <t>20264</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3936</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5964</t>
+          <t>6450</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,32 +2819,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,32 +2854,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>8498</t>
+          <t>8825</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6375</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>11203</t>
+          <t>11821</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -2897,17 +2897,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3014,32 +3014,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>102436</t>
+          <t>87133</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>99446</t>
+          <t>84719</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>104853</t>
+          <t>89267</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3049,32 +3049,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>103413</t>
+          <t>99715</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>99990</t>
+          <t>96424</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>106156</t>
+          <t>102124</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>205848</t>
+          <t>186849</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>201388</t>
+          <t>183188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>209904</t>
+          <t>190027</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,52%</t>
         </is>
       </c>
     </row>
@@ -3127,32 +3127,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>5326</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8764</t>
+          <t>7519</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3162,32 +3162,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9545</t>
+          <t>8862</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7284</t>
+          <t>6868</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>12468</t>
+          <t>11725</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3197,32 +3197,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>15849</t>
+          <t>14188</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>12697</t>
+          <t>11462</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>19551</t>
+          <t>17315</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -3240,32 +3240,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2789</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3275,32 +3275,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4283</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>6483</t>
+          <t>5156</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3310,32 +3310,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>8607</t>
+          <t>6586</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>6126</t>
+          <t>4805</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11577</t>
+          <t>8872</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>89132</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>86150</t>
+          <t>70541</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>91914</t>
+          <t>75124</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>123610</t>
+          <t>116539</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>120605</t>
+          <t>113788</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>126152</t>
+          <t>118925</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3540,27 +3540,27 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>212743</t>
+          <t>189873</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>208378</t>
+          <t>186333</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>216450</t>
+          <t>193095</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
@@ -3583,32 +3583,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6822</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9657</t>
+          <t>6283</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3618,32 +3618,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7172</t>
+          <t>6358</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4923</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>9945</t>
+          <t>8835</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>13995</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>10964</t>
+          <t>8437</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>18057</t>
+          <t>13392</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -3696,32 +3696,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>4943</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3731,32 +3731,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>5062</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3766,32 +3766,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>5830</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>8352</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3926,102 +3926,102 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>642564</t>
+          <t>669881</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>634912</t>
+          <t>662193</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>649042</t>
+          <t>676729</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
+          <t>90,56%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>89,52%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>91,49%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>738302</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>730553</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>744884</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>90,88%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>89,93%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>91,69%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>7796</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>1408182</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>1397129</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>1417486</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>90,73%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
           <t>90,02%</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>88,95%</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>90,93%</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>4083</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>695794</t>
-        </is>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>688114</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>702276</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="inlineStr">
-        <is>
-          <t>90,34%</t>
-        </is>
-      </c>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>89,34%</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>91,18%</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>7796</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>1338358</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>1326369</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>1347344</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>90,19%</t>
-        </is>
-      </c>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>89,38%</t>
-        </is>
-      </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>91,33%</t>
         </is>
       </c>
     </row>
@@ -4039,32 +4039,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>48974</t>
+          <t>45955</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>43267</t>
+          <t>40236</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>55394</t>
+          <t>52283</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4074,32 +4074,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>49976</t>
+          <t>48281</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>44225</t>
+          <t>42547</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>56580</t>
+          <t>54336</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4109,32 +4109,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>98950</t>
+          <t>94236</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>90416</t>
+          <t>85567</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>108457</t>
+          <t>102823</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -4152,32 +4152,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>22233</t>
+          <t>23851</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>18140</t>
+          <t>19772</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>26581</t>
+          <t>29116</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4187,27 +4187,27 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>24457</t>
+          <t>25777</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>20329</t>
+          <t>21944</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>29468</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
@@ -4222,32 +4222,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>46690</t>
+          <t>49628</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>40885</t>
+          <t>43931</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>52908</t>
+          <t>56463</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -4265,17 +4265,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Edad-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63458</t>
+          <t>100990</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61463</t>
+          <t>96043</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64971</t>
+          <t>103949</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>94,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90,11%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>97,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>97114</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>91542</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>101202</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>92,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>87,5%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>96,73%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>198104</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>191254</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>203221</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>93,8%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>90,85%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>96,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>61647</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>58824</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>63914</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>90,22%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>86,09%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>93,54%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>669</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>125106</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>121371</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>127702</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>92,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>96,22%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>5076</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>9713</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>6156</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>11763</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6708</t>
+          <t>11232</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>6711</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9257</t>
+          <t>18126</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>516</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>2487</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1325</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4157</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>529</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6744</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>104622</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>104622</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>104622</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>353</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211204</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211204</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211204</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82880</t>
+          <t>162123</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79497</t>
+          <t>155615</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85460</t>
+          <t>166562</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84182</t>
+          <t>181982</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>81498</t>
+          <t>173953</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>86145</t>
+          <t>188101</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>533</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>167062</t>
+          <t>344105</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>162898</t>
+          <t>334029</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>170294</t>
+          <t>351535</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5389</t>
+          <t>10513</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>6247</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8081</t>
+          <t>16521</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>14492</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>9185</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>22058</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>9068</t>
+          <t>25006</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6413</t>
+          <t>18365</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>12684</t>
+          <t>35352</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5468</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>567</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>5263</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7553</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173696</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173696</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173696</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198417</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198417</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198417</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>578</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>372113</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>372113</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>372113</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1641,107 +1641,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>112015</t>
+          <t>223975</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>108525</t>
+          <t>215708</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>115301</t>
+          <t>229874</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>370</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111835</t>
+          <t>224047</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>107696</t>
+          <t>215729</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>115002</t>
+          <t>230070</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>223849</t>
+          <t>448022</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>217611</t>
+          <t>437081</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>228493</t>
+          <t>456642</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>93,98%</t>
         </is>
       </c>
     </row>
@@ -1754,107 +1754,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11141</t>
+          <t>16092</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8415</t>
+          <t>10643</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14545</t>
+          <t>23433</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9528</t>
+          <t>15298</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6951</t>
+          <t>9661</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12769</t>
+          <t>23118</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>20669</t>
+          <t>31390</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16584</t>
+          <t>23213</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>25417</t>
+          <t>41282</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>760</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>7098</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5331</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7833</t>
+          <t>7121</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>8618</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>11922</t>
+          <t>11650</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>243310</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>243310</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>243310</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>398</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242606</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242606</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242606</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>784</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>485916</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>485916</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>485916</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,107 +2097,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>448</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>134069</t>
+          <t>271684</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>130313</t>
+          <t>261618</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>137091</t>
+          <t>279450</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>410</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>137047</t>
+          <t>247903</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>133974</t>
+          <t>238813</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>139807</t>
+          <t>255165</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>858</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>271117</t>
+          <t>519587</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>266020</t>
+          <t>505568</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>275161</t>
+          <t>530247</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>92,87%</t>
         </is>
       </c>
     </row>
@@ -2210,107 +2210,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8339</t>
+          <t>21642</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>13780</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11154</t>
+          <t>31109</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>22576</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>15410</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10342</t>
+          <t>31238</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>44218</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>13006</t>
+          <t>34495</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>19890</t>
+          <t>57607</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -2323,107 +2323,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3886</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8219</t>
+          <t>5049</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5180</t>
+          <t>4991</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3575</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>10912</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>8128</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>14335</t>
+          <t>12955</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275470</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275470</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275470</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>933</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570937</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570937</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570937</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2553,107 +2553,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>116990</t>
+          <t>217805</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>113739</t>
+          <t>209279</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>119683</t>
+          <t>223523</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>366</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>127336</t>
+          <t>220612</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>124595</t>
+          <t>213235</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>129908</t>
+          <t>226765</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>710</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>244326</t>
+          <t>438417</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>240150</t>
+          <t>428579</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>248293</t>
+          <t>446676</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>94,71%</t>
         </is>
       </c>
     </row>
@@ -2666,107 +2666,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8826</t>
+          <t>14907</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>9171</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11524</t>
+          <t>23166</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7858</t>
+          <t>16297</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>10219</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10089</t>
+          <t>23618</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>16684</t>
+          <t>31204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>13775</t>
+          <t>23425</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20264</t>
+          <t>41076</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -2779,107 +2779,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4253</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2718</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6450</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>812</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6508</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>8825</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>368</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>11821</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233912</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233912</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233912</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,22 +2927,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>237721</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>237721</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>237721</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,22 +2962,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>762</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>471633</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>471633</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>471633</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3009,107 +3009,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>524</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>87133</t>
+          <t>171043</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>84719</t>
+          <t>167085</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89267</t>
+          <t>173929</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>99715</t>
+          <t>157252</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>96424</t>
+          <t>150912</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>102124</t>
+          <t>161927</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>936</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>186849</t>
+          <t>328295</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>183188</t>
+          <t>321060</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>190027</t>
+          <t>333809</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>93,42%</t>
         </is>
       </c>
     </row>
@@ -3122,107 +3122,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>9579</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>6750</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>13184</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>5326</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3787</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>7519</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>7,86%</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8862</t>
+          <t>16154</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6868</t>
+          <t>11779</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11725</t>
+          <t>22214</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>14188</t>
+          <t>25733</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>11462</t>
+          <t>20420</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>17315</t>
+          <t>32806</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -3235,107 +3235,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>285</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2182</t>
+          <t>699</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>5145</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>6586</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>8872</t>
+          <t>6380</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -3348,22 +3348,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181714</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181714</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181714</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3383,22 +3383,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>454</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175609</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175609</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>175609</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3418,22 +3418,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357324</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357324</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357324</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3465,107 +3465,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>138354</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>70541</t>
+          <t>134791</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>75124</t>
+          <t>141225</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>444</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>116539</t>
+          <t>175166</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>113788</t>
+          <t>169686</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>118925</t>
+          <t>179477</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>897</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>189873</t>
+          <t>313520</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>186333</t>
+          <t>306485</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>193095</t>
+          <t>318179</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,85%</t>
         </is>
       </c>
     </row>
@@ -3578,107 +3578,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4375</t>
+          <t>7355</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>4748</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6283</t>
+          <t>10504</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6358</t>
+          <t>11867</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>7926</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>8835</t>
+          <t>16979</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>10733</t>
+          <t>19222</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>8437</t>
+          <t>14752</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>13392</t>
+          <t>25722</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,67%</t>
         </is>
       </c>
     </row>
@@ -3691,107 +3691,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>290</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4943</t>
+          <t>2954</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>407</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>5062</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>5830</t>
+          <t>2704</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>3897</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>8352</t>
+          <t>6545</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146795</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146795</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146795</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3839,22 +3839,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>476</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188650</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188650</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188650</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3874,22 +3874,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>958</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>335445</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>335445</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>335445</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3921,107 +3921,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>2553</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>669881</t>
+          <t>1285973</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>662193</t>
+          <t>1269786</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>676729</t>
+          <t>1301089</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>4083</t>
+          <t>2442</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>738302</t>
+          <t>1304077</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>730553</t>
+          <t>1286905</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>744884</t>
+          <t>1320256</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>7796</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1408182</t>
+          <t>2590049</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1397129</t>
+          <t>2566235</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1417486</t>
+          <t>2612871</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>93,16%</t>
         </is>
       </c>
     </row>
@@ -4034,107 +4034,107 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>45955</t>
+          <t>85165</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>40236</t>
+          <t>71483</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>52283</t>
+          <t>100020</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>180</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>48281</t>
+          <t>102840</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>42547</t>
+          <t>87114</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>54336</t>
+          <t>119794</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>343</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>94236</t>
+          <t>188005</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>85567</t>
+          <t>168108</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>102823</t>
+          <t>211555</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>7,54%</t>
         </is>
       </c>
     </row>
@@ -4147,107 +4147,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>23851</t>
+          <t>10338</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>19772</t>
+          <t>6046</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>29116</t>
+          <t>15675</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>25777</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>21944</t>
+          <t>10967</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>31121</t>
+          <t>23937</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>49628</t>
+          <t>26518</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>43931</t>
+          <t>19210</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>56463</t>
+          <t>35875</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -4260,22 +4260,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1381476</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1381476</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1381476</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4295,22 +4295,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>2649</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1423096</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1423096</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1423096</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4330,22 +4330,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>5385</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2804572</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2804572</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2804572</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4620,107 +4620,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100990</t>
+          <t>63458</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96043</t>
+          <t>61463</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>103949</t>
+          <t>64971</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>314</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>97114</t>
+          <t>61647</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>91542</t>
+          <t>58824</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>101202</t>
+          <t>63914</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>669</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>198104</t>
+          <t>125106</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>191254</t>
+          <t>121371</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>203221</t>
+          <t>127702</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>89,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>93,91%</t>
         </is>
       </c>
     </row>
@@ -4733,107 +4733,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5076</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9713</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6156</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11763</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11232</t>
+          <t>6708</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>18126</t>
+          <t>9257</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -4846,107 +4846,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>696</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>4781</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>6744</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -4959,22 +4959,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4994,22 +4994,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>104622</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>104622</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>104622</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>211204</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>211204</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>211204</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5076,107 +5076,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>361</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>162123</t>
+          <t>82880</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>155615</t>
+          <t>79497</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>166562</t>
+          <t>85460</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>351</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>181982</t>
+          <t>84182</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>173953</t>
+          <t>81498</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>188101</t>
+          <t>86145</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,67%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>344105</t>
+          <t>167062</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>334029</t>
+          <t>162898</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>351535</t>
+          <t>170294</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,18%</t>
         </is>
       </c>
     </row>
@@ -5189,107 +5189,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5389</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8081</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10513</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6247</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>16521</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14492</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9185</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22058</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>25006</t>
+          <t>9068</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>18365</t>
+          <t>6413</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>35352</t>
+          <t>12684</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -5302,107 +5302,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>5468</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>630</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5263</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7153</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -5415,22 +5415,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>173696</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173696</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173696</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5450,22 +5450,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>198417</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>198417</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>198417</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>372113</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>372113</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>372113</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5532,107 +5532,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>223975</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>215708</t>
+          <t>108525</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>229874</t>
+          <t>115301</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>517</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>224047</t>
+          <t>111835</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>215729</t>
+          <t>107696</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>230070</t>
+          <t>115002</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>448022</t>
+          <t>223849</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>437081</t>
+          <t>217611</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>456642</t>
+          <t>228493</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>90,26%</t>
         </is>
       </c>
     </row>
@@ -5645,107 +5645,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16092</t>
+          <t>11141</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10643</t>
+          <t>8415</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23433</t>
+          <t>14545</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15298</t>
+          <t>9528</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9661</t>
+          <t>6951</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23118</t>
+          <t>12769</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>31390</t>
+          <t>20669</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23213</t>
+          <t>16584</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>41282</t>
+          <t>25417</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -5758,107 +5758,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7098</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3261</t>
+          <t>5331</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7121</t>
+          <t>7833</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>8618</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>11650</t>
+          <t>11922</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -5871,22 +5871,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>243310</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>243310</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>243310</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5906,22 +5906,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>242606</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>242606</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>242606</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5941,22 +5941,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>485916</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>485916</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>485916</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5988,107 +5988,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>727</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>271684</t>
+          <t>134069</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>261618</t>
+          <t>130313</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>279450</t>
+          <t>137091</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>739</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>247903</t>
+          <t>137047</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>238813</t>
+          <t>133974</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>255165</t>
+          <t>139807</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>519587</t>
+          <t>271117</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>505568</t>
+          <t>266020</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>530247</t>
+          <t>275161</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>89,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>92,27%</t>
         </is>
       </c>
     </row>
@@ -6101,107 +6101,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21642</t>
+          <t>8339</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13780</t>
+          <t>6048</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31109</t>
+          <t>11154</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22576</t>
+          <t>7847</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15410</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31238</t>
+          <t>10342</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>44218</t>
+          <t>16186</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>34495</t>
+          <t>13006</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>57607</t>
+          <t>19890</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -6214,107 +6214,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2141</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>8219</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>7132</t>
+          <t>10912</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>8128</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>12955</t>
+          <t>14335</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -6327,22 +6327,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6362,22 +6362,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>275470</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>275470</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>275470</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6397,22 +6397,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>570937</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>570937</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>570937</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6444,107 +6444,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>660</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>217805</t>
+          <t>116990</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>209279</t>
+          <t>113739</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>223523</t>
+          <t>119683</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>782</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>220612</t>
+          <t>127336</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>213235</t>
+          <t>124595</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>226765</t>
+          <t>129908</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>91,11%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>438417</t>
+          <t>244326</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>428579</t>
+          <t>240150</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>446676</t>
+          <t>248293</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>92,02%</t>
         </is>
       </c>
     </row>
@@ -6557,107 +6557,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14907</t>
+          <t>8826</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9171</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23166</t>
+          <t>11524</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16297</t>
+          <t>7858</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10219</t>
+          <t>5951</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>23618</t>
+          <t>10089</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>31204</t>
+          <t>16684</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>23425</t>
+          <t>13775</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>41076</t>
+          <t>20264</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -6670,107 +6670,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>6450</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4446</t>
+          <t>6508</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>8825</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>11821</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -6783,22 +6783,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>233912</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>233912</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>233912</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6818,22 +6818,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>237721</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>237721</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>237721</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6853,22 +6853,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>471633</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>471633</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>471633</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6900,107 +6900,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>592</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>171043</t>
+          <t>87133</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>167085</t>
+          <t>84719</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>173929</t>
+          <t>89267</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>629</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>157252</t>
+          <t>99715</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>150912</t>
+          <t>96424</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>161927</t>
+          <t>102124</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>328295</t>
+          <t>186849</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>321060</t>
+          <t>183188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>333809</t>
+          <t>190027</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>91,52%</t>
         </is>
       </c>
     </row>
@@ -7013,107 +7013,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9579</t>
+          <t>5326</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6750</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13184</t>
+          <t>7519</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>16154</t>
+          <t>8862</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11779</t>
+          <t>6868</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>22214</t>
+          <t>11725</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>25733</t>
+          <t>14188</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>20420</t>
+          <t>11462</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>32806</t>
+          <t>17315</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -7126,107 +7126,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>3193</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>5145</t>
+          <t>5156</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3296</t>
+          <t>6586</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>4805</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>6380</t>
+          <t>8872</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -7239,22 +7239,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>181714</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>181714</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>181714</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7274,22 +7274,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>175609</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>175609</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>175609</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7309,22 +7309,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>357324</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>357324</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>357324</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7356,107 +7356,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>138354</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>134791</t>
+          <t>70541</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>141225</t>
+          <t>75124</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>751</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>175166</t>
+          <t>116539</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>169686</t>
+          <t>113788</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>179477</t>
+          <t>118925</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>313520</t>
+          <t>189873</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>306485</t>
+          <t>186333</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>318179</t>
+          <t>193095</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>93,54%</t>
         </is>
       </c>
     </row>
@@ -7469,107 +7469,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7355</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4748</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10504</t>
+          <t>6283</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11867</t>
+          <t>6358</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>7926</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>16979</t>
+          <t>8835</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>19222</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>14752</t>
+          <t>8437</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>25722</t>
+          <t>13392</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -7582,107 +7582,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>4943</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>5062</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>2704</t>
+          <t>5830</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>3897</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>6545</t>
+          <t>8352</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -7695,22 +7695,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>146795</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>146795</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>146795</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7730,22 +7730,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>188650</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>188650</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>188650</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7765,22 +7765,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>335445</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>335445</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>335445</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7812,107 +7812,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1285973</t>
+          <t>669881</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1269786</t>
+          <t>662193</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1301089</t>
+          <t>676729</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>2442</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1304077</t>
+          <t>738302</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1286905</t>
+          <t>730553</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1320256</t>
+          <t>744884</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>4995</t>
+          <t>7796</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>2590049</t>
+          <t>1408182</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>2566235</t>
+          <t>1397129</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>2612871</t>
+          <t>1417486</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>91,33%</t>
         </is>
       </c>
     </row>
@@ -7925,107 +7925,107 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>85165</t>
+          <t>45955</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>71483</t>
+          <t>40236</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100020</t>
+          <t>52283</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>284</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>102840</t>
+          <t>48281</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>87114</t>
+          <t>42547</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>119794</t>
+          <t>54336</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>548</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>188005</t>
+          <t>94236</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>168108</t>
+          <t>85567</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>211555</t>
+          <t>102823</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -8038,107 +8038,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>10338</t>
+          <t>23851</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>6046</t>
+          <t>19772</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>15675</t>
+          <t>29116</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>16179</t>
+          <t>25777</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>10967</t>
+          <t>21944</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>23937</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>256</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>26518</t>
+          <t>49628</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>19210</t>
+          <t>43931</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>35875</t>
+          <t>56463</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -8151,22 +8151,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1381476</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1381476</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1381476</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8186,22 +8186,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1423096</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>1423096</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>1423096</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8221,22 +8221,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>5385</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>2804572</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>2804572</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>2804572</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
